--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rami\source\repos\Facturacion textil en Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rami\source\repos\Facturacion_textil_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B04EAC-310B-4882-9EC3-5ACAB0D8DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666C63A-BF4C-4F65-AD8F-FC03B84245F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +322,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +417,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2ECCD8-99A4-4784-96F1-732DE310D454}" name="Tabla1" displayName="Tabla1" ref="B4:G19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2ECCD8-99A4-4784-96F1-732DE310D454}" name="Tabla1" displayName="Tabla1" ref="B4:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{486CD2FC-0311-46C9-9857-8F659D53A361}" name="Columna1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{FC960386-1284-4A02-A4B0-0BCD92AA1140}" name="Columna2" dataDxfId="4"/>
@@ -713,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,10 +730,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,90 +828,178 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8"/>
       <c r="E10" s="21"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8"/>
       <c r="E11" s="21"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8"/>
       <c r="E12" s="21"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8"/>
       <c r="E13" s="21"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="8"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="44" spans="4:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="24"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="55" spans="4:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D55" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.31496062992125984"/>

--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rami\source\repos\Facturacion_textil_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666C63A-BF4C-4F65-AD8F-FC03B84245F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3404C181-416B-46F5-95BC-4DA9A2A62C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Cantidad</t>
   </si>
@@ -47,35 +47,57 @@
     <t>Conteo</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Cliente:</t>
-  </si>
-  <si>
     <t>Precio unitario</t>
   </si>
   <si>
     <t>Importe</t>
   </si>
   <si>
-    <t>Observaciones: archivo ""</t>
-  </si>
-  <si>
     <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Observaciones:</t>
+  </si>
+  <si>
+    <t>Factura N°</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Condición fiscal:</t>
+  </si>
+  <si>
+    <t>CLIENTE 1</t>
+  </si>
+  <si>
+    <t>20/1/1999</t>
+  </si>
+  <si>
+    <t>Consumidor final</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Envio a cargo del comprador</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,24 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,27 +121,50 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,17 +209,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -204,49 +249,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,126 +271,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <vertical/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <vertical/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -397,12 +508,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -416,15 +521,69 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2889775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>256442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55162</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>296060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3936D010-4234-FB1B-16E5-08F358D5E290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="20000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="5347" b="5432"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3988813" y="7971692"/>
+          <a:ext cx="2213637" cy="1929964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2ECCD8-99A4-4784-96F1-732DE310D454}" name="Tabla1" displayName="Tabla1" ref="B4:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{486CD2FC-0311-46C9-9857-8F659D53A361}" name="Columna1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FC960386-1284-4A02-A4B0-0BCD92AA1140}" name="Columna2" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{F0BF9631-AD34-4D5D-A7A9-F2F923AF76AF}" name="Columna7" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E0D71703-E7E5-4858-A12E-B478E3D3ECDD}" name="Columna3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2A4646E0-3DD8-493A-BA13-262098AD30C2}" name="Columna4" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6668A6D6-3E80-4C77-A91A-1D32084D1BEE}" name="Columna6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2ECCD8-99A4-4784-96F1-732DE310D454}" name="Tabla1" displayName="Tabla1" ref="A7:E26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="7">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{486CD2FC-0311-46C9-9857-8F659D53A361}" name="Columna1" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{F0BF9631-AD34-4D5D-A7A9-F2F923AF76AF}" name="Columna7" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E0D71703-E7E5-4858-A12E-B478E3D3ECDD}" name="Columna3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2A4646E0-3DD8-493A-BA13-262098AD30C2}" name="Columna4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6668A6D6-3E80-4C77-A91A-1D32084D1BEE}" name="Columna6" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,285 +886,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0E44F0-6FC5-4593-B735-96347D41A42C}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:G55"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="130" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28">
+        <v>1234</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="F2" s="25" t="s">
+      <c r="B3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="4" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>111</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="24">
+        <v>100</v>
+      </c>
+      <c r="E8" s="20">
+        <f>A8*D8</f>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="55" spans="4:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D55" s="24"/>
+      <c r="B26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="32">
+        <f>SUM(E8:E25)</f>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.25" header="0.3" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rami\source\repos\Facturacion_textil_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3404C181-416B-46F5-95BC-4DA9A2A62C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5F1497-6030-470E-9D1E-2C924DA3C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
+    <workbookView xWindow="15615" yWindow="660" windowWidth="13095" windowHeight="13320" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,25 +322,25 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -355,16 +355,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -373,34 +367,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -508,6 +474,34 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -526,15 +520,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2889775</xdr:colOff>
+      <xdr:colOff>2385511</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>256442</xdr:rowOff>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>55162</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555360</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>296060</xdr:rowOff>
+      <xdr:rowOff>94355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -563,8 +557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3988813" y="7971692"/>
-          <a:ext cx="2213637" cy="1929964"/>
+          <a:off x="3483687" y="7922559"/>
+          <a:ext cx="2013467" cy="1752825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,13 +571,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2ECCD8-99A4-4784-96F1-732DE310D454}" name="Tabla1" displayName="Tabla1" ref="A7:E26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C2ECCD8-99A4-4784-96F1-732DE310D454}" name="Tabla1" displayName="Tabla1" ref="A7:E26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{486CD2FC-0311-46C9-9857-8F659D53A361}" name="Columna1" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F0BF9631-AD34-4D5D-A7A9-F2F923AF76AF}" name="Columna7" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E0D71703-E7E5-4858-A12E-B478E3D3ECDD}" name="Columna3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2A4646E0-3DD8-493A-BA13-262098AD30C2}" name="Columna4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6668A6D6-3E80-4C77-A91A-1D32084D1BEE}" name="Columna6" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{486CD2FC-0311-46C9-9857-8F659D53A361}" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F0BF9631-AD34-4D5D-A7A9-F2F923AF76AF}" name="Columna7" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E0D71703-E7E5-4858-A12E-B478E3D3ECDD}" name="Columna3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2A4646E0-3DD8-493A-BA13-262098AD30C2}" name="Columna4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6668A6D6-3E80-4C77-A91A-1D32084D1BEE}" name="Columna6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,7 +872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -888,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0E44F0-6FC5-4593-B735-96347D41A42C}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="130" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +915,7 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
@@ -932,7 +926,7 @@
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6"/>
@@ -943,7 +937,7 @@
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
@@ -1144,10 +1138,10 @@
       <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <f>SUM(E8:E25)</f>
         <v>11100</v>
       </c>

--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rami\source\repos\Facturacion_textil_2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\ramitules\Facturacion_textil_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5F1497-6030-470E-9D1E-2C924DA3C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16FC45-E0CB-462D-8AD2-647A119C1821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15615" yWindow="660" windowWidth="13095" windowHeight="13320" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cantidad</t>
   </si>
@@ -66,24 +66,6 @@
   </si>
   <si>
     <t>Condición fiscal:</t>
-  </si>
-  <si>
-    <t>CLIENTE 1</t>
-  </si>
-  <si>
-    <t>20/1/1999</t>
-  </si>
-  <si>
-    <t>Consumidor final</t>
-  </si>
-  <si>
-    <t>Ejemplo</t>
-  </si>
-  <si>
-    <t>Unidades</t>
-  </si>
-  <si>
-    <t>Envio a cargo del comprador</t>
   </si>
   <si>
     <t>Total:</t>
@@ -263,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,9 +265,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -338,9 +317,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -364,7 +340,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -519,23 +495,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2385511</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
+      <xdr:rowOff>206189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>555360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94355</xdr:rowOff>
+      <xdr:colOff>791679</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>262762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3936D010-4234-FB1B-16E5-08F358D5E290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952CE2D2-064A-B44D-C99E-9D335829EDEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -543,22 +519,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:alphaModFix amt="20000"/>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="5347" b="5432"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3483687" y="7922559"/>
-          <a:ext cx="2013467" cy="1752825"/>
+          <a:off x="4114800" y="7879977"/>
+          <a:ext cx="1625397" cy="1625397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,7 +560,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -883,280 +859,253 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="28">
-        <v>1234</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="30"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>111</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="24">
-        <v>100</v>
-      </c>
-      <c r="E8" s="20">
-        <f>A8*D8</f>
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="8" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>15</v>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="31">
-        <f>SUM(E8:E25)</f>
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:2" ht="18" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
     </row>
   </sheetData>

--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\ramitules\Facturacion_textil_2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\ramitules\Facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16FC45-E0CB-462D-8AD2-647A119C1821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA471804-2467-4A5A-B715-C599CA217BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cantidad</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Nombre:</t>
-  </si>
-  <si>
-    <t>Condición fiscal:</t>
   </si>
   <si>
     <t>Total:</t>
@@ -859,7 +856,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,9 +900,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1090,7 +1085,7 @@
     </row>
     <row r="31" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="29"/>
     </row>

--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -5,38 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\ramitules\Facturacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/318745c2dd4a0186/Facturacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA471804-2467-4A5A-B715-C599CA217BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CA471804-2467-4A5A-B715-C599CA217BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CB431E-9B0C-4D8C-B6B8-F089C24ADB2F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cantidad</t>
   </si>
@@ -67,6 +56,9 @@
   <si>
     <t>Total:</t>
   </si>
+  <si>
+    <t>Tules</t>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +68,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +126,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,11 +335,14 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,7 +511,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>791679</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>262762</xdr:rowOff>
+      <xdr:rowOff>262763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -856,7 +866,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +875,7 @@
     <col min="2" max="2" width="42.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
@@ -874,7 +884,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+      <c r="A1" s="31" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="6"/>
       <c r="D1" s="27" t="s">
         <v>7</v>
@@ -882,29 +894,30 @@
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -1087,7 +1100,7 @@
       <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -5,20 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/318745c2dd4a0186/Facturacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\ramitules\Facturacion_textil_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CA471804-2467-4A5A-B715-C599CA217BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CB431E-9B0C-4D8C-B6B8-F089C24ADB2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16FC45-E0CB-462D-8AD2-647A119C1821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6D90268-911F-4225-9558-77472726293D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,10 +65,10 @@
     <t>Nombre:</t>
   </si>
   <si>
-    <t>Total:</t>
+    <t>Condición fiscal:</t>
   </si>
   <si>
-    <t>Tules</t>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -68,7 +79,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +137,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,14 +331,11 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,7 +504,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>791679</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>262763</xdr:rowOff>
+      <xdr:rowOff>262762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -866,7 +859,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +868,7 @@
     <col min="2" max="2" width="42.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
@@ -884,9 +877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="D1" s="27" t="s">
         <v>7</v>
@@ -894,30 +885,31 @@
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="30"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -1098,9 +1090,9 @@
     </row>
     <row r="31" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
